--- a/publipostage/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
+++ b/publipostage/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00405171</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Efavirenz to Nevirapine Switch in HIV-1 Infected Patients With Severe Dyslipidemia: A Randomized Controlled Study</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -521,32 +531,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NCT00277888</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NCT00362492</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Complications of Jugular and Femoral Venous Catheterization in Critically Ill Patients Requiring Hemodialysis: A Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CATHEDIA</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+          <t>9-10 Days Versus Prolonged Thromboprophylaxis in Patients Without Evidence of Ultrasound Proximal Thromboembolism After Total Knee Joint Replacement: a Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -558,28 +569,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NCT00362492</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NCT00277888</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9-10 Days Versus Prolonged Thromboprophylaxis in Patients Without Evidence of Ultrasound Proximal Thromboembolism After Total Knee Joint Replacement: a Randomized Controlled Trial</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Complications of Jugular and Femoral Venous Catheterization in Critically Ill Patients Requiring Hemodialysis: A Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CATHEDIA</t>
+        </is>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -591,32 +611,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT00931645</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Randomized Phase III Trial Evaluating the Role of Autologous Stem Cell Transplantation in Previously Untreated Patients With Stage B and C Chronic Lymphocytic Leukemia</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Auto-LLC 2001</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -628,32 +653,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT01070862</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Multiple Myeloma Treatment With Thalidomide. Three Randomized Studies on Thalidomide as Induction Treatment Before Autotransplant (MY-TAG) or With a Conventional Chemotherapy (MY-DECT) and as Consolidation/Maintenance at Plateau Phase (MY-PLAT).</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>MAG 2002</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -665,28 +695,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT00963066</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>NAV-ALI: Effects of Different Levels of Neurally Adjusted Ventilatory Assist (NAVA) in Patients Recovering Spontaneous Breathing After Acute Lung Injury: A Physiological Evaluation.</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -698,32 +733,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT00811109</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
+          <t>2007-005170-30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HEMOTOL: Effects of New Dialysis On-line Monitoring Devices on Hemodynamic Stability During Intermittent Hemodialysis in Critically Ill Patients With Acute Kidney Injury : a Prospective Randomized Study.</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>HEMOTOL</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
+          <t>Pharmacocinétique de l’Hydrocortisone chez le patient ADdisonien : évaluation de la valeur prédictive de l’ACTH plasmatique pour la titration du traitement substitutif</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>PHAD</t>
+        </is>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -735,32 +775,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT00876967</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT00811109</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Comparison of Performance of Three Laryngoscope Blades: Plastic Single Use, Metallic Single Use and Metallic Reusable Blades.</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Laryngotest</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
+          <t>HEMOTOL: Effects of New Dialysis On-line Monitoring Devices on Hemodynamic Stability During Intermittent Hemodialysis in Critically Ill Patients With Acute Kidney Injury : a Prospective Randomized Study.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>HEMOTOL</t>
+        </is>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -770,34 +815,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2007-005170-30</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+          <t>NCT00876967</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Pharmacocinétique de l’Hydrocortisone chez le patient ADdisonien : évaluation de la valeur prédictive de l’ACTH plasmatique pour la titration du traitement substitutif</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PHAD</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
+          <t>Comparison of Performance of Three Laryngoscope Blades: Plastic Single Use, Metallic Single Use and Metallic Reusable Blades.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Laryngotest</t>
+        </is>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -807,34 +857,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>2007-001842-42</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Fixation de prothèses par Tissucol dans la cure de prolapsus  par voie vaginale</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>TISSPRO</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -846,32 +901,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>NCT01471600</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Randomized Control Study : Safety and Efficacy of Carbohydrate Drink Ingested Two Hours Before Upper Endoscopy Under General Anaesthesia</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>ENDOGLUcide</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -883,32 +943,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>NCT00850278</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Assessment of [18F]FLT-PET Imaging for Diagnosis and Prognosis of Brain Tumors</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>FLT</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -920,28 +985,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>NCT01074619</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Effects of Memantine on Cognitive Disorders of Relapsing-remitting Multiple Sclerosis</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -953,70 +1023,76 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT01231828</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT01518075</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Method of Assessment of Driving Ability in Patients Suffering From Wakefulness Pathologies. Impact of Lactulose and Carnitine Treatment.</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AutoSop-Foie</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
+          <t>Breathing-swallowing Interaction in Chronic Obstructive Pulmonary Disease (COPD) Patients Hospitalized in Intensive Care Unit for an Acute Exacerbation: Impact of Non Invasive Ventilation. Physiological Evaluation</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT01251666</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT01231828</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Comparison of Performances of Two Automated Immunochemical Faecal Occult Blood Tests in Colorectal Cancer Screening, in Reference to Usual Care Guaiac Test</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>HeMO</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
+          <t>Method of Assessment of Driving Ability in Patients Suffering From Wakefulness Pathologies. Impact of Lactulose and Carnitine Treatment.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>AutoSop-Foie</t>
+        </is>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1027,70 +1103,80 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT01022697</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT01200134</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Randomized Control Study : Evaluation of the Benefits of Glucose Drinks During Childbirth</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SOLISO</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
+          <t>Hypoxia Diagnosis and Evaluation Using F-MISO PET and Biomarkers in Brain Tumors</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>HYPONCO</t>
+        </is>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT01200134</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT01251666</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Hypoxia Diagnosis and Evaluation Using F-MISO PET and Biomarkers in Brain Tumors</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HYPONCO</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
+          <t>Comparison of Performances of Two Automated Immunochemical Faecal Occult Blood Tests in Colorectal Cancer Screening, in Reference to Usual Care Guaiac Test</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>HeMO</t>
+        </is>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1101,32 +1187,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NCT01212211</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NCT01022697</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Hyponatremia in the Elderly: Benefit From a Change in Drug Therapy?</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NATRIPHAR</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
+          <t>Randomized Control Study : Evaluation of the Benefits of Glucose Drinks During Childbirth</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>SOLISO</t>
+        </is>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1138,28 +1229,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT01518075</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT01212211</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Breathing-swallowing Interaction in Chronic Obstructive Pulmonary Disease (COPD) Patients Hospitalized in Intensive Care Unit for an Acute Exacerbation: Impact of Non Invasive Ventilation. Physiological Evaluation</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="b">
-        <v>0</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Hyponatremia in the Elderly: Benefit From a Change in Drug Therapy?</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NATRIPHAR</t>
+        </is>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1171,32 +1271,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>NCT02514317</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Ultrasound-assisted Percutaneous Release of Carpal Tunnel Syndrome</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>ECHOCARPE</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1208,28 +1313,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT02525315</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NCT01535716</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TMS HALLU</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
+          <t>Does Goal-directed Hemodynamic Therapy Driven by Endotracheal Cardiac Output Monitoring System During Surgical Intervention Reduce Hospital Stay and Major Adverse Cardiac Events Following Cardiac Surgery?</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ECOMIII</t>
+        </is>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1241,32 +1355,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT01535716</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT01466439</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Does Goal-directed Hemodynamic Therapy Driven by Endotracheal Cardiac Output Monitoring System During Surgical Intervention Reduce Hospital Stay and Major Adverse Cardiac Events Following Cardiac Surgery?</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ECOMIII</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
+          <t>Evaluation of Effect of Low and High-frequencies of Repetitive Transcranial Magnetic Stimulation (rTMS) by the Suppression of P50 Evoked Potential Component (rTMS-P50)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>rTMS-P50</t>
+        </is>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1278,32 +1397,33 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT01466439</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT02525315</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Evaluation of Effect of Low and High-frequencies of Repetitive Transcranial Magnetic Stimulation (rTMS) by the Suppression of P50 Evoked Potential Component (rTMS-P50)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>rTMS-P50</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>TMS HALLU</t>
+        </is>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1315,32 +1435,33 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT02563236</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT02510521</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Evaluation of 3D Selection Tasks in Parabolic Flight Conditions: Pointing Task in Augmented Reality User Interfaces</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3DPICK</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>ELECTRODIAB</t>
+        </is>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1352,28 +1473,33 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>NCT02517190</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>COSI@PFC</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1385,28 +1511,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT02510521</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT02563236</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ELECTRODIAB</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+          <t>Evaluation of 3D Selection Tasks in Parabolic Flight Conditions: Pointing Task in Augmented Reality User Interfaces</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3DPICK</t>
+        </is>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1418,28 +1553,33 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>NCT02517138</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>DROITDEVANT</t>
         </is>
       </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1451,28 +1591,33 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>NCT02563262</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>HYDRONAUT</t>
         </is>
       </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1484,70 +1629,76 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>NCT02510755</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Stress and Emotional Memory : Functional Neuroanatomy of Post-traumatic Stress Disorder in Adolescents</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>SEME</t>
         </is>
       </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT01479153</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT01636089</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Comparison of Subclavian, Femoral and Internal Jugular Venous Catheterization in Term of Complications in the Intensive Care Unit: a Randomized Controlled Trial</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3SITES</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>HYDRAREA</t>
+        </is>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1558,169 +1709,198 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>NCT02517736</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>O-Mel-Sora</t>
         </is>
       </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCT01022489</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT02524574</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Evaluation of Repetitive Transcranial Magnetic Stimulation (rTMS) at High Frequency With Neuronavigation in the Treatment of Auditory Hallucinations : A Randomized Multicentric Controlled Study</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>TMS-Hz</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>TEP-READ</t>
+        </is>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT02524574</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NCT01022489</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>TEP-READ</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
+          <t>Evaluation of Repetitive Transcranial Magnetic Stimulation (rTMS) at High Frequency With Neuronavigation in the Treatment of Auditory Hallucinations : A Randomized Multicentric Controlled Study</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>TMS-Hz</t>
+        </is>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT01564745</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT01479153</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Cough Determinants in Mechanically Ventilated Patients: a Physiological Study</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Extu-Cough</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
+          <t>Comparison of Subclavian, Femoral and Internal Jugular Venous Catheterization in Term of Complications in the Intensive Care Unit: a Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>3SITES</t>
+        </is>
       </c>
       <c r="H35" t="b">
         <v>1</v>
       </c>
       <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT01636089</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT01564745</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>HYDRAREA</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+          <t>Cough Determinants in Mechanically Ventilated Patients: a Physiological Study</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Extu-Cough</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1729,246 +1909,285 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>NCT02910479</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Phase 1 Study Evaluating the Relevance and Reliability of Gastrointestinal Temperature Measurements From a New Device (E-celsius)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>e-TEMP</t>
+        </is>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT02510703</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>D-TEP</t>
+        </is>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT02128945</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Dosimetry and Biodistribution of [18F]-Fludarabine in Lymphoid Malignancies</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FLUDATEP</t>
+        </is>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>🟩</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT02343601</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Perioperative Hemodynamic Optimization Using the Photoplethysmography in Colorectal Surgery : A Randomized Controlled Study</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>PANEX3</t>
+        </is>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT02847806</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>STEROSENS</t>
+        </is>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>2014-000457-36</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>A comparative dynamic study of myocardial perfusion reserve explored by cardiac WATER labelled O-15 -PET vs Tc99mibi D-SPECT in coronAry arterY disease. Protocol WATER -DAY 
  Evaluation de la réserve Coronaire par la TEP à l’H215O et la coronarographie chez les patients coronariens : Etude comparative avec la caméra SPECTRUM-DYNAMICS au 99mTc-mibi. Protocol WATER -DAY.</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>WATER-DAY 
  WATER-DAY</t>
         </is>
       </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>🟩</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>NCT02343601</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Perioperative Hemodynamic Optimization Using the Photoplethysmography in Colorectal Surgery : A Randomized Controlled Study</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>PANEX3</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="b">
-        <v>1</v>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>NCT02910479</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Phase 1 Study Evaluating the Relevance and Reliability of Gastrointestinal Temperature Measurements From a New Device (E-celsius)</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>e-TEMP</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>NCT02847806</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>STEROSENS</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>NCT02128945</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Dosimetry and Biodistribution of [18F]-Fludarabine in Lymphoid Malignancies</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>FLUDATEP</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>NCT02510703</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>D-TEP</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NCT03087825</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NCT02207296</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Effect of Preoxygenation With Spontaneous Breathing or Noninvasive Positive Pressure Ventilation With or Without a Calibrated Leak. An Experimental Study in Healthy Volunteers</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="b">
-        <v>0</v>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Operative Hemodynamic Optimization Using the Plethysmographic Variability Index During Orthopedic Surgery : a Multicentric Prospective Randomized Controlled Study</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>OPVI</t>
+        </is>
       </c>
       <c r="H43" t="b">
         <v>1</v>
       </c>
       <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1980,103 +2199,114 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT02510677</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT02000414</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>FAST DOGS</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
+          <t>Pharmacokinetics Study of Intraperitoneal Administration of Daptomycin in Patients With Peritoneal Dialysis and Peritoneal Infection</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>DAPTODP</t>
+        </is>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT02000414</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT03087825</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Pharmacokinetics Study of Intraperitoneal Administration of Daptomycin in Patients With Peritoneal Dialysis and Peritoneal Infection</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>DAPTODP</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
+          <t>Effect of Preoxygenation With Spontaneous Breathing or Noninvasive Positive Pressure Ventilation With or Without a Calibrated Leak. An Experimental Study in Healthy Volunteers</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT02207296</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT02510677</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Operative Hemodynamic Optimization Using the Plethysmographic Variability Index During Orthopedic Surgery : a Multicentric Prospective Randomized Controlled Study</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>OPVI</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>FAST DOGS</t>
+        </is>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2087,181 +2317,206 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT03567070</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT03407209</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Pregnancy and Use of Psychoactive Substances: The Influence of Representations of Care on Care.</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ADDGEST</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
+          <t>Compared Efficacy of Patient-controlled Epidural Analgesia With or Without Automatic Boluses</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>FREE BOLI</t>
+        </is>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NCT02292316</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
+          <t>2017-001474-41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Falls With Fracture : Role of Cognitive Disorders and Comparison With Bone Fragility</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>CFC</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
+          <t>Bénéfices de la perfusion continue de lidocaïne intraveineuse en chirurgie bariatrique : une étude randomisée prospective contre placebo</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>XYLOBAR</t>
+        </is>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NCT04191759</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NCT02292316</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Reliability of the Passive Properties of the Calf Muscles in Healthy Subjects Assessed Using Isokinetic Device</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ISOSTIFF</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
+          <t>Falls With Fracture : Role of Cognitive Disorders and Comparison With Bone Fragility</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>CFC</t>
+        </is>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NCT02773719</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NCT03567070</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Effect of the Intervention of Biofields Therapy on Warts of the Hands and Feet in Adults: a Prospective, Randomized, Double-blind Trial</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>MAGNETIK</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
+          <t>Pregnancy and Use of Psychoactive Substances: The Influence of Representations of Care on Care.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>ADDGEST</t>
+        </is>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
+          <t>🟩</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>vert</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2017-001474-41</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
+          <t>NCT02773719</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Bénéfices de la perfusion continue de lidocaïne intraveineuse en chirurgie bariatrique : une étude randomisée prospective contre placebo</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>XYLOBAR</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
+          <t>Effect of the Intervention of Biofields Therapy on Warts of the Hands and Feet in Adults: a Prospective, Randomized, Double-blind Trial</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>MAGNETIK</t>
+        </is>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2272,70 +2527,80 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NCT03407209</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NCT04191759</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Compared Efficacy of Patient-controlled Epidural Analgesia With or Without Automatic Boluses</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>FREE BOLI</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
+          <t>Reliability of the Passive Properties of the Calf Muscles in Healthy Subjects Assessed Using Isokinetic Device</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>ISOSTIFF</t>
+        </is>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NCT04061616</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NCT03029897</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Transcultural Validation of the Physical Activity Scale for Individuals With Physical Disabilities (PASIPD) in French: The PASIPD-Fr</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>PASIPD-Fr</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
+          <t>Impact of E-reporting by Patients With Relapsing-remitting Multiple Sclerosis on the Reporting of Adverse Drug Reactions in France: a Randomized Controlled Trial.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>VigiP-SEP</t>
+        </is>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
       <c r="I53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2346,32 +2611,33 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NCT03978026</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NCT03725111</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Evaluation de l'efficacité Sur la Vigilance et Les Performances de Conduite simulée d'Une Sieste effectuée Dans Des Environnements différents, Dont le Module SOMBOX</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SOMBOX</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
+          <t>Haemodynamics Variations of Transcutaneous Oxygen in Patient With Arterio-venous Leg Ulcers Under Venous Compression (COMPULCE Study)</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2383,70 +2649,80 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>NCT02799511</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Biomarkers for the Diagnosis of Transient Ischemic Attack</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>MAESTRO</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NCT02751021</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NCT02789007</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Sleep Apnea Diagnosis Using a Novel Pacemaker Algorithm and Link With Aldosterone Plasma Level in Patients Presenting With Diastolic Dysfunction: SAPAAD Study</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SAPAAD</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
+          <t>Effects of Parabolic Flight on Spatial Cognition and Hippocampal Plasticity</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>HypoCampus</t>
+        </is>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2457,69 +2733,79 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT02832349</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NCT03978026</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Impact of Educational Actions on the Quality Of Life of Epileptic Patients</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>EQOLE</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
+          <t>Evaluation de l'efficacité Sur la Vigilance et Les Performances de Conduite simulée d'Une Sieste effectuée Dans Des Environnements différents, Dont le Module SOMBOX</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>SOMBOX</t>
+        </is>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NCT03029897</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NCT02751021</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Impact of E-reporting by Patients With Relapsing-remitting Multiple Sclerosis on the Reporting of Adverse Drug Reactions in France: a Randomized Controlled Trial.</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>VigiP-SEP</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
+          <t>Sleep Apnea Diagnosis Using a Novel Pacemaker Algorithm and Link With Aldosterone Plasma Level in Patients Presenting With Diastolic Dysfunction: SAPAAD Study</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>SAPAAD</t>
+        </is>
       </c>
       <c r="H58" t="b">
         <v>1</v>
       </c>
       <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2531,28 +2817,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT03725111</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NCT03941847</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Haemodynamics Variations of Transcutaneous Oxygen in Patient With Arterio-venous Leg Ulcers Under Venous Compression (COMPULCE Study)</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="b">
-        <v>0</v>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Musinduc : Impact of Music During the Period of Anaesthetic Induction - a Randomized Controlled Clinical Trial</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>MUSINDUC</t>
+        </is>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2564,32 +2859,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT02789007</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NCT02832349</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Effects of Parabolic Flight on Spatial Cognition and Hippocampal Plasticity</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>HypoCampus</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+          <t>Impact of Educational Actions on the Quality Of Life of Epileptic Patients</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>EQOLE</t>
+        </is>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2601,32 +2901,37 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NCT03941847</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NCT04061616</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Musinduc : Impact of Music During the Period of Anaesthetic Induction - a Randomized Controlled Clinical Trial</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MUSINDUC</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
+          <t>Transcultural Validation of the Physical Activity Scale for Individuals With Physical Disabilities (PASIPD) in French: The PASIPD-Fr</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>PASIPD-Fr</t>
+        </is>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2638,32 +2943,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NCT01805336</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NCT04602234</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Assessment of Attentional and Executive Disorders in Multiple Sclerosis Using Techniques of Virtual Reality</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>SEPREV</t>
-        </is>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
+          <t>Diagnosis of Lower Respiratory Tract Infection by Lung Ultrasonography in General Practice : a Prospective, Interventional and Multicentric Study</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>AmbuLUS</t>
+        </is>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2675,29 +2985,38 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT04352283</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT05629247</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Does Preprocedural Ultrasound Exam of Lumbar Spine Increase the First-pass Success Rate of Epidural Space Identification Among Obese Parturients: A Randomized Controlled Open Trial</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="b">
-        <v>0</v>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Pediatric Intensive Care Unit and Primary Immune Deficiency</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>PICUPID</t>
+        </is>
       </c>
       <c r="H63" t="b">
         <v>0</v>
       </c>
       <c r="I63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2708,32 +3027,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NCT04602234</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NCT05036200</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Diagnosis of Lower Respiratory Tract Infection by Lung Ultrasonography in General Practice : a Prospective, Interventional and Multicentric Study</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>AmbuLUS</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
+          <t>Efficacy, Tolerance and Acceptability of Pulsed Dye Laser on Telangiectasias of the Face and Neckline in Systemic Scleroderma: a Prospective Single-center Open-label Study of 21 Patients</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>PDL</t>
+        </is>
       </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2745,70 +3069,72 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NCT05036200</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NCT04352283</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Efficacy, Tolerance and Acceptability of Pulsed Dye Laser on Telangiectasias of the Face and Neckline in Systemic Scleroderma: a Prospective Single-center Open-label Study of 21 Patients</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>PDL</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
+          <t>Does Preprocedural Ultrasound Exam of Lumbar Spine Increase the First-pass Success Rate of Epidural Space Identification Among Obese Parturients: A Randomized Controlled Open Trial</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCT05971615</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NCT03539185</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Evaluate the Relevance of the Use of Peripheral Venous Blood Gases for the Care of Patients in the S.A.U.V (Vital Emergency Rooms) of the CHU de Caen</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>GDS</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
+          <t>Airtraq Versus Fiberoptic for Awake Tracheal Intubation : A Randomised Non-inferiority Trial</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2819,66 +3145,80 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCT05629247</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NCT05971615</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Pediatric Intensive Care Unit and Primary Immune Deficiency</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>PICUPID</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
+          <t>Evaluate the Relevance of the Use of Peripheral Venous Blood Gases for the Care of Patients in the S.A.U.V (Vital Emergency Rooms) of the CHU de Caen</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>GDS</t>
+        </is>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NCT03539185</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NCT01805336</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Airtraq Versus Fiberoptic for Awake Tracheal Intubation : A Randomised Non-inferiority Trial</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="b">
-        <v>1</v>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Assessment of Attentional and Executive Disorders in Multiple Sclerosis Using Techniques of Virtual Reality</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>SEPREV</t>
+        </is>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2889,32 +3229,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>NCT03963856</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>MULTI-SYSTEM PHYSIOLOGIC RESPONSE TO VARYING LEVELS OF PARTIAL GRAVITY</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>GRAVIDOSE</t>
         </is>
       </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2926,33 +3271,38 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NCT04238572</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NCT04244448</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Evaluation of an Immersive Audiovisual Distraction Device Impact on Peroperative Opioid Consumption. A Prospective Randomized Controlled Study</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>AmbuCineView</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
+          <t>A Study of Bioequivalence When Administering Biktarvy® (TAF/FTC/BIC) in the Form of a Solid/Crushed/Dissolved Tablet to Healthy Volunteers - SOLUBIC Study</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>SOLUBIC</t>
+        </is>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2963,70 +3313,80 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCT04879290</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NCT04434300</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Comparison of Two FiO2 (1 or 0.5) for Tracheal Extubation in Post-anesthesia Care Unit : a Monocentric Randomized Trial</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>EXTUBO2</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
+          <t>Comparison of the Pharmacokinetic and the Safety of Daptomycin Administered Subcutaneously Compared to the Intravenous Route : a Cross-over Study</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>DAPTOSC</t>
+        </is>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT04434300</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NCT04685512</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Comparison of the Pharmacokinetic and the Safety of Daptomycin Administered Subcutaneously Compared to the Intravenous Route : a Cross-over Study</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>DAPTOSC</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
+          <t>Effect of Tenofovir/Emtricitabine Short Course on Viral Clearance in Patients Recently Infected With SARS-COV2 (Covid-19) Not Requiring Hospitalization: a Phase IIB/III Multicenter Open-label Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>AR0-CORONA</t>
+        </is>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3037,70 +3397,80 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NCT04244448</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NCT04238572</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>A Study of Bioequivalence When Administering Biktarvy® (TAF/FTC/BIC) in the Form of a Solid/Crushed/Dissolved Tablet to Healthy Volunteers - SOLUBIC Study</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>SOLUBIC</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
+          <t>Evaluation of an Immersive Audiovisual Distraction Device Impact on Peroperative Opioid Consumption. A Prospective Randomized Controlled Study</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>AmbuCineView</t>
+        </is>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCT04685512</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NCT04879290</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Effect of Tenofovir/Emtricitabine Short Course on Viral Clearance in Patients Recently Infected With SARS-COV2 (Covid-19) Not Requiring Hospitalization: a Phase IIB/III Multicenter Open-label Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>AR0-CORONA</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
+          <t>Comparison of Two FiO2 (1 or 0.5) for Tracheal Extubation in Post-anesthesia Care Unit : a Monocentric Randomized Trial</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>EXTUBO2</t>
+        </is>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3111,70 +3481,76 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>NCT04168983</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>Study of the Impact of Sophrology on the Pain Felt During a Bone Marrow Aspiration and Biopsy</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>BOM-ZEN</t>
         </is>
       </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NCT01638949</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NCT05538442</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Study of the Predictive Markers and the Pathophysiological Mechanisms of Alzheimer's Disease: Transverse and Longitudinal Approach in Anatomical and Functional Multimodal Imaging</t>
-        </is>
-      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>IMAP+</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
+          <t>Kinetics of the Determinants of Performance During an Ultra-trail</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3185,32 +3561,37 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>NCT03843580</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>Transnasal Humidified Rapid-Insufflation Ventilatory Exchange (THRIVE) Could Decrease the Incidence of Oxygen Desaturation During Suspension Laryngoscopy: a Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>optilaryngo</t>
         </is>
       </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
       <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3222,28 +3603,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NCT05538442</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NCT04020107</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Kinetics of the Determinants of Performance During an Ultra-trail</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="b">
-        <v>0</v>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Validity of Somatosensori Remediation for Postural Control in the Treatment of Ehlers-Danlos Syndrome Hypermobility Type (hEDS)</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>VITALISED</t>
+        </is>
       </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3255,32 +3645,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NCT04020107</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NCT02157480</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Validity of Somatosensori Remediation for Postural Control in the Treatment of Ehlers-Danlos Syndrome Hypermobility Type (hEDS)</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>VITALISED</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
+          <t>ELECTRODIAB2: Effect of an Outpatient Program of Bi-quadricipital Electrostimulation on Glucose Profile of Sedentary Patients With Type 2 Diabetes.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>ELECTRODIAB2</t>
+        </is>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3292,32 +3687,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NCT02157480</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NCT05963750</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>ELECTRODIAB2: Effect of an Outpatient Program of Bi-quadricipital Electrostimulation on Glucose Profile of Sedentary Patients With Type 2 Diabetes.</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ELECTRODIAB2</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
+          <t>Assessment of the Impact of Virtual Reality on Patient Anxiety During Dental Avulsions Under Local Anesthesia</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>REVIDEN</t>
+        </is>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3329,32 +3729,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCT04006093</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NCT05603780</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Pharmacokinetics of Apixaban in Subjects With End-stage Renal Disease Treated With Peritoneal Dialysis: the ApiDP Study</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ApiDP</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
+          <t>Cognitive, Emotional, Physiological, Chronobiological and Genetic Effects of a Time Underground Isolation</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>DEEPTIME</t>
+        </is>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3366,70 +3771,80 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NCT05963750</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NCT04006093</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Assessment of the Impact of Virtual Reality on Patient Anxiety During Dental Avulsions Under Local Anesthesia</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>REVIDEN</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
+          <t>Pharmacokinetics of Apixaban in Subjects With End-stage Renal Disease Treated With Peritoneal Dialysis: the ApiDP Study</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>ApiDP</t>
+        </is>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NCT05603780</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NCT01638949</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Cognitive, Emotional, Physiological, Chronobiological and Genetic Effects of a Time Underground Isolation</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>DEEPTIME</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
+          <t>Study of the Predictive Markers and the Pathophysiological Mechanisms of Alzheimer's Disease: Transverse and Longitudinal Approach in Anatomical and Functional Multimodal Imaging</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>IMAP+</t>
+        </is>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J83" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3440,32 +3855,37 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>NCT06442683</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>Efficacy of Simulation-based Neonatal Echocardiography Training: a Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>SimuEchoNeo</t>
         </is>
       </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3477,32 +3897,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NCT04927949</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>NCT05419258</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Evaluation of Myocardial Reperfusion and Residual Thrombotic Burden After Primary PCI for STEMI in Patients With High on Ticagrelor Platelet Reactivity Treated by IV Cangrelor Versus Ticagrelor Alone</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ERMIT</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
+          <t>Feasibility and Evaluation Study of the UPLUG Hemodialysis Connection Device</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>UPLUG-SAFE</t>
+        </is>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3514,32 +3939,37 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NCT05419258</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NCT05717283</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Feasibility and Evaluation Study of the UPLUG Hemodialysis Connection Device</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>UPLUG-SAFE</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
+          <t>Follow-up of the Nasal Microbiome and Viral Infections in Newborns Hospitalised in Neonatology in the University Hospital of Caen, France : Metatranscriptomics Approach by Next Generation Sequencing From Nasal Swabs.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>NEOBIOME</t>
+        </is>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3551,32 +3981,37 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NCT04187170</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NCT04927949</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Longitudinal Analysis of Right Ventricular Remodeling in Response to Prolonged Strength Training Using 3D-echocardiography</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>FORCE-VD</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
+          <t>Evaluation of Myocardial Reperfusion and Residual Thrombotic Burden After Primary PCI for STEMI in Patients With High on Ticagrelor Platelet Reactivity Treated by IV Cangrelor Versus Ticagrelor Alone</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>ERMIT</t>
+        </is>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3588,32 +4023,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NCT03677063</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NCT05966402</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Usefulness of Sterile Adhesive Dressing at the Exit-site of Peritoneal Dialysis Catheter: a Pilot Study</t>
-        </is>
-      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>PANCADIPE</t>
-        </is>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
+          <t>Evaluation of Immersion in Virtual Reality in the Management of Anxiety, Then Pain, of Patients in Interventional Imaging.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>IRVARI</t>
+        </is>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
       <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3625,32 +4065,39 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NCT05966402</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
+          <t>2020-003621-36</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Evaluation of Immersion in Virtual Reality in the Management of Anxiety, Then Pain, of Patients in Interventional Imaging.</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>IRVARI</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
+          <t>Evaluation de la reperfusion myocardique et de la masse thrombotique endocoronaire après angioplastie primaire pour infarctus du myocarde sous cangrelor en intraveineux en plus du ticagrelor per os comparé au ticagrelor per os seul en cas de réactivité plaquettaire élevée. 
+ Evaluation de la reperfusion myocardique et de la masse thrombotique endocoronaire après angioplastie primaire pour infarctus du myocarde sous cangrelor en intraveineux en plus du ticagrelor per os comparé au ticagrelor per os seul en cas de réactivité plaquettaire élevée.</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>ERMIT 
+ ERMIT</t>
+        </is>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
       <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3662,32 +4109,37 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NCT05717283</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>NCT03677063</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Follow-up of the Nasal Microbiome and Viral Infections in Newborns Hospitalised in Neonatology in the University Hospital of Caen, France : Metatranscriptomics Approach by Next Generation Sequencing From Nasal Swabs.</t>
-        </is>
-      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>NEOBIOME</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
+          <t>Usefulness of Sterile Adhesive Dressing at the Exit-site of Peritoneal Dialysis Catheter: a Pilot Study</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>PANCADIPE</t>
+        </is>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
       <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3697,36 +4149,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2020-003621-36</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
+          <t>NCT04187170</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Evaluation de la reperfusion myocardique et de la masse thrombotique endocoronaire après angioplastie primaire pour infarctus du myocarde sous cangrelor en intraveineux en plus du ticagrelor per os comparé au ticagrelor per os seul en cas de réactivité plaquettaire élevée. 
- Evaluation de la reperfusion myocardique et de la masse thrombotique endocoronaire après angioplastie primaire pour infarctus du myocarde sous cangrelor en intraveineux en plus du ticagrelor per os comparé au ticagrelor per os seul en cas de réactivité plaquettaire élevée.</t>
-        </is>
-      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ERMIT 
- ERMIT</t>
-        </is>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
+          <t>Longitudinal Analysis of Right Ventricular Remodeling in Response to Prolonged Strength Training Using 3D-echocardiography</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>FORCE-VD</t>
+        </is>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
       <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3738,24 +4193,29 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>NCT02517177</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
         <is>
           <t>AUTOCARD</t>
         </is>
       </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3767,24 +4227,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NCT02524600</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NCT02516787</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>IQSCINTIMYOC</t>
-        </is>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>CORTICOG</t>
+        </is>
       </c>
       <c r="H93" t="b">
         <v>0</v>
       </c>
       <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3796,24 +4261,29 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NCT02510859</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>NCT02510872</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>NUQUE2</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>TEPVAD</t>
+        </is>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
       <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3825,29 +4295,30 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NCT01211236</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>NCT02524535</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Maggot Therapy for Wound Debridement: a Randomized Multicentric Double-blind Trial</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>MAGGOT</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>IPSI2</t>
+        </is>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
       <c r="I95" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3858,24 +4329,29 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NCT02516787</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NCT02524600</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>CORTICOG</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>IQSCINTIMYOC</t>
+        </is>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
       <c r="I96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3887,24 +4363,29 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NCT02524535</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>NCT02510859</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>IPSI2</t>
-        </is>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>NUQUE2</t>
+        </is>
       </c>
       <c r="H97" t="b">
         <v>0</v>
       </c>
       <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3916,25 +4397,34 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NCT02515812</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>NCT01211236</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ADRECARD</t>
-        </is>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
+          <t>Maggot Therapy for Wound Debridement: a Randomized Multicentric Double-blind Trial</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>MAGGOT</t>
+        </is>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
+      </c>
+      <c r="J98" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3945,24 +4435,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NCT02510872</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>NCT02515812</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>TEPVAD</t>
-        </is>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>ADRECARD</t>
+        </is>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
       <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3974,24 +4469,29 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>NCT02518880</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
         <is>
           <t>DYMCO</t>
         </is>
       </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
       <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4001,32 +4501,37 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
         <is>
           <t>2015-005804-27</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
         <is>
           <t>Essai randomisé, contrôlé, en double aveugle, de l'anakinra contre placebo, en adjonction à la corticothérapie dans l'artérite à cellules géantes. 
  Essai randomisé, contrôlé, en double aveugle, de l'anakinra contre placebo, en adjonction à la corticothérapie dans l'artérite à cellules géantes.</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>GiAnT 
  GiAnT</t>
         </is>
       </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
       <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
+++ b/publipostage/027arzy69/liste_essais_cliniques_identifies_027arzy69.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -602,6 +617,11 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -644,6 +664,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -686,6 +711,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -724,6 +754,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -766,6 +801,7 @@
       <c r="J8" t="b">
         <v>1</v>
       </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -808,6 +844,11 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -850,6 +891,11 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -892,6 +938,7 @@
       <c r="J11" t="b">
         <v>1</v>
       </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -934,6 +981,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -976,6 +1028,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1014,6 +1071,11 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1052,6 +1114,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1094,6 +1161,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1136,6 +1208,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1178,6 +1255,11 @@
       <c r="J18" t="b">
         <v>1</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1220,6 +1302,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1262,6 +1349,11 @@
       <c r="J20" t="b">
         <v>0</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1304,6 +1396,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1346,6 +1443,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1388,6 +1490,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1426,6 +1533,11 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1464,6 +1576,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1502,6 +1619,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1544,6 +1666,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1582,6 +1709,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1620,6 +1752,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1662,6 +1799,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1700,6 +1842,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1738,6 +1885,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1776,6 +1928,11 @@
       <c r="J33" t="b">
         <v>1</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1818,6 +1975,11 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1860,6 +2022,11 @@
       <c r="J35" t="b">
         <v>1</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1902,6 +2069,11 @@
       <c r="J36" t="b">
         <v>1</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1944,6 +2116,11 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1982,6 +2159,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2024,6 +2206,11 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2066,6 +2253,11 @@
       <c r="J40" t="b">
         <v>1</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2104,6 +2296,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2148,6 +2345,7 @@
       <c r="J42" t="b">
         <v>1</v>
       </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2190,6 +2388,11 @@
       <c r="J43" t="b">
         <v>1</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2232,6 +2435,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2270,6 +2478,11 @@
       <c r="J45" t="b">
         <v>1</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2308,6 +2521,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2350,6 +2568,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2392,6 +2615,7 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2434,6 +2658,11 @@
       <c r="J49" t="b">
         <v>1</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2476,6 +2705,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2518,6 +2752,11 @@
       <c r="J51" t="b">
         <v>1</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2560,6 +2799,11 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2602,6 +2846,11 @@
       <c r="J53" t="b">
         <v>1</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2640,6 +2889,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2682,6 +2936,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2724,6 +2983,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2766,6 +3030,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2808,6 +3077,11 @@
       <c r="J58" t="b">
         <v>1</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2850,6 +3124,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2892,6 +3171,11 @@
       <c r="J60" t="b">
         <v>0</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2934,6 +3218,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2976,6 +3265,11 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3018,6 +3312,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3060,6 +3359,11 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3097,6 +3401,11 @@
       </c>
       <c r="J65" t="b">
         <v>1</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -3136,6 +3445,11 @@
       <c r="J66" t="b">
         <v>1</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3178,6 +3492,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3220,6 +3539,11 @@
       <c r="J68" t="b">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3262,6 +3586,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3304,6 +3633,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3346,6 +3680,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3388,6 +3727,11 @@
       <c r="J72" t="b">
         <v>1</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3430,6 +3774,11 @@
       <c r="J73" t="b">
         <v>1</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3472,6 +3821,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3514,6 +3868,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3552,6 +3911,11 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3594,6 +3958,11 @@
       <c r="J77" t="b">
         <v>0</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3636,6 +4005,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3678,6 +4052,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3720,6 +4099,11 @@
       <c r="J80" t="b">
         <v>0</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3762,6 +4146,11 @@
       <c r="J81" t="b">
         <v>0</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3804,6 +4193,11 @@
       <c r="J82" t="b">
         <v>0</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3846,6 +4240,11 @@
       <c r="J83" t="b">
         <v>1</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3888,6 +4287,11 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3930,6 +4334,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3972,6 +4381,11 @@
       <c r="J86" t="b">
         <v>0</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4014,6 +4428,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4056,6 +4475,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4100,6 +4524,7 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4142,6 +4567,11 @@
       <c r="J90" t="b">
         <v>0</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4183,6 +4613,11 @@
       </c>
       <c r="J91" t="b">
         <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -4218,6 +4653,11 @@
       <c r="J92" t="b">
         <v>0</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4252,6 +4692,11 @@
       <c r="J93" t="b">
         <v>0</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4286,6 +4731,11 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4320,6 +4770,11 @@
       <c r="J95" t="b">
         <v>0</v>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4354,6 +4809,11 @@
       <c r="J96" t="b">
         <v>0</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4388,6 +4848,11 @@
       <c r="J97" t="b">
         <v>0</v>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4425,6 +4890,11 @@
       </c>
       <c r="J98" t="b">
         <v>1</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -4460,6 +4930,11 @@
       <c r="J99" t="b">
         <v>0</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4494,6 +4969,11 @@
       <c r="J100" t="b">
         <v>0</v>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4534,6 +5014,7 @@
       <c r="J101" t="b">
         <v>0</v>
       </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
